--- a/prix/diessner.xlsx
+++ b/prix/diessner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\peinture\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A202DF-C2B9-4F3F-AB58-8B8C74846166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCC4917-AFE9-4FCC-92A9-36AE5E345CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -680,7 +680,7 @@
   <dimension ref="A1:G450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,7 +732,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">

--- a/prix/diessner.xlsx
+++ b/prix/diessner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\peinture\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caisse5\Desktop\site-internet\peintures\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A587C453-ADB6-4F1A-AC27-0509C03B2501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB415B6-41FC-40A3-924B-4147CE8E49A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -348,6 +348,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065E4AF0-A4F8-4CE3-9E23-EDCEACB756BD}">
   <dimension ref="A1:G450"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,14 +737,14 @@
       <c r="C2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="15">
         <v>48.45</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5">
-        <v>1</v>
+      <c r="F2" s="14">
+        <v>-10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -751,14 +757,14 @@
       <c r="C3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="15">
         <v>110.84</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5">
-        <v>0</v>
+      <c r="F3" s="14">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -771,14 +777,14 @@
       <c r="C4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="15">
         <v>151.19</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5">
-        <v>4</v>
+      <c r="F4" s="14">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -791,14 +797,14 @@
       <c r="C5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="15">
         <v>64.489999999999995</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5">
-        <v>25</v>
+      <c r="F5" s="14">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -811,14 +817,14 @@
       <c r="C6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="15">
         <v>115.95</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="5">
-        <v>-1</v>
+      <c r="F6" s="14">
+        <v>-4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -831,13 +837,13 @@
       <c r="C7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="15">
         <v>50.51</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="14">
         <v>24</v>
       </c>
     </row>
@@ -851,13 +857,13 @@
       <c r="C8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="15">
         <v>14.97</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="14">
         <v>29</v>
       </c>
     </row>
@@ -871,13 +877,13 @@
       <c r="C9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="15">
         <v>15.87</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="14">
         <v>4</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -892,13 +898,13 @@
       <c r="C10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="15">
         <v>14.97</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="14">
         <v>-1</v>
       </c>
     </row>
@@ -910,13 +916,13 @@
       <c r="C11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="15">
         <v>14.01</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="14">
         <v>9</v>
       </c>
     </row>
@@ -930,13 +936,13 @@
       <c r="C12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="15">
         <v>32.520000000000003</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="14">
         <v>8</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -951,14 +957,14 @@
       <c r="C13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="15">
         <v>30.27</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="5">
-        <v>8</v>
+      <c r="F13" s="14">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -969,13 +975,13 @@
       <c r="C14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="15">
         <v>30.27</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="14">
         <v>16</v>
       </c>
     </row>
@@ -989,13 +995,13 @@
       <c r="C15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="15">
         <v>61.21</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="14">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -1010,14 +1016,14 @@
       <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="15">
         <v>56.71</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="5">
-        <v>4</v>
+      <c r="F16" s="14">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1028,13 +1034,13 @@
       <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="15">
         <v>56.71</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="14">
         <v>14</v>
       </c>
     </row>
@@ -1048,13 +1054,13 @@
       <c r="C18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="15">
         <v>21.05</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="14">
         <v>7</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -1071,13 +1077,13 @@
       <c r="C19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="15">
         <v>38.200000000000003</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="14">
         <v>14</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -1094,13 +1100,13 @@
       <c r="C20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="3">
-        <v>68.099999999999994</v>
+      <c r="D20" s="15">
+        <v>63.6</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="14">
         <v>9</v>
       </c>
       <c r="G20" s="5" t="s">
